--- a/biology/Zoologie/Bengali_zébré/Bengali_zébré.xlsx
+++ b/biology/Zoologie/Bengali_zébré/Bengali_zébré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bengali_z%C3%A9br%C3%A9</t>
+          <t>Bengali_zébré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amandava subflava
 Le Bengali zébré (Amandava subflava) est une espèce de passereaux appartenant à la famille des Estrildidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bengali_z%C3%A9br%C3%A9</t>
+          <t>Bengali_zébré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 9 cm de longueur. Il présente un léger dimorphisme sexuel, la femelle ayant un plumage plus terne que le mâle.
 Les parties supérieures sont brun olive et les inférieures jaune vif, la poitrine est orange et le croupion rouge, un trait de cette couleur passe au niveau de chaque œil marron. Le bec est rouge et les pattes marron.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bengali_z%C3%A9br%C3%A9</t>
+          <t>Bengali_zébré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bengali zébré vit en Afrique au sud du Sahara à l'exception de l'extrême sud.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bengali_z%C3%A9br%C3%A9</t>
+          <t>Bengali_zébré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce fréquente les pâturages et les cultures.
 </t>
